--- a/table.xlsx
+++ b/table.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>institute</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Tuber crops</t>
   </si>
   <si>
-    <t>ICAR Award for Outstanding Interdisciplinary Team Research in Agricultural and Allied Sciences for Biennium 2011-12,Sardar Patel Outstanding Institution Award for the year 2005,J.J. Chinoy Gold Medal (1970), three ICAR Team Research Awards (1985,1996, 1998), D.L. Plucknett Award for Tropical Root Crops, Hari Om Trust Award (1993), Jawaharlal Nehru Award (1975, 1995, 1998, 2000 and 2003), Young Scientist Award instituted by Deseeya Sasthra Vedi (1996), NRDC cash reward for biodegradable plastics (2000), Pat Coursey Award (2000, 2006),Vasantharao Naik Memorial Gold Medal (2002), The Best Annual Report Award (1997- 98) among the category of Small Institutes</t>
-  </si>
-  <si>
     <t>Crop Production, Crop Improvement, Crop Protection, Crop Utilization, Social Sciences, Regional Center</t>
   </si>
   <si>
@@ -234,13 +231,132 @@
   </si>
   <si>
     <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Cancer Research, Cardiovascular Diseases &amp; Diabetes Biology, Regenerative Biology, Plant Biotechnology &amp; Disease Biology, Neurobiology, Reproduction Biology, Transdisciplinary Biology Program</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry and Proteomic Core Facility, Bio-imaging Facility, Bio-imaging Facility, Genomics Facility, Animal Research Facility, Research Engineering Services</t>
+  </si>
+  <si>
+    <t>Technology of "COVID-Anosmia checker"; a tool for Covid-19/olfactory dysfunction screening</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>Public Policy</t>
+  </si>
+  <si>
+    <t>Government and Public institutions</t>
+  </si>
+  <si>
+    <t>Research on pubic and government bodies, dissemination of research, capacity building on public work and volunteering, provide educational and research support</t>
+  </si>
+  <si>
+    <t>Development Policy Analysis, Governence, Transport Management and Policy, Urbanisation, Environmental Concerns, International Policy Studies, Labour and Wage Policy, HRD Policy</t>
+  </si>
+  <si>
+    <t>Chemical Sciences</t>
+  </si>
+  <si>
+    <t>Development of new synthetic strategies, C–H activations and methodologies en route to the natural products, Organic materials chemistry, organic photochemistry, Design of New Hole Transporting Materials for Solar Cells, Artificial Photosynthesis/Femtosecond Spectroscopy, Luminescence in metal organic frameworks and nano composites, Chemical conversions for sustainable energy utilizations</t>
+  </si>
+  <si>
+    <t>Physical Organic Chemistry, Biophysical Chemistry, Electrochemistry of Materials, Inorganic Reaction Mechanisms, Sustainable Organic Synthesis</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Medical devices, Biomaterials, Biocompatibility, Tissue Engineering, Product incubation and commercialization</t>
+  </si>
+  <si>
+    <t>Controlled drug delivery for targeted delivery of drugs and vaccines, Diagnostic kits for cardiovascular, neurological and genetic diseases, Surface modification for improved compatibility and infection resistance, Polymer composites for various medical applications, Evaluation of thrombotic tendency in patients with cardiovascular diseases, Identification of genes involved in development of neuronal hyper activation and develop early diagnostic markers,Development of bioactive ceramics materials for use in orthopedic surgery, Development of blood handling devices like centrifugal blood pumps and blood concentrators</t>
+  </si>
+  <si>
+    <t> Radiopaque LIquid Embolization Device, Implantable Micro Infusion Pump,  Bioink for 3D Bioprinting, Automatic Smart Trash Bin For Disinfection Using UV Enabled Microwave (Astra)</t>
+  </si>
+  <si>
+    <t> implemented a quality system meeting international standard ISO/IEC 17025 and is accredited by Le Comite Francais d'Acreditation (COFRAC), France, instrumental in establishing a medical device industry base in India by successfully developing and commercializing technologies</t>
+  </si>
+  <si>
+    <t>Small Scale Industry</t>
+  </si>
+  <si>
+    <t>Microbiology, CHEMISTRY, ENGINEERING, EXTENSION, PRODUCT DIVERSIFICATION, DESIGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User friendly technologies for coir industry, Develop technologies for dyeing of coir, matching shades, devlop innovative coir polyster,  evolve/ modify the existing machineries in coir processing for better output and realize better wages to the coir artisans, extension work in the area of popularization of COIRRET &amp; PITHPLUS, </t>
+  </si>
+  <si>
+    <t>COIR PITH TESTING LAB, FERMENTATION LAB, PILOT SCALE LAB, CHEMISTRY LABORATORY, MICRO LABORATORY, QUALITY CONTROL LAB, ASTM LABORATORY, PHYSICAL TESTING LAB, HYDRAULIC LABORATORY</t>
+  </si>
+  <si>
+    <t>Horticulture</t>
+  </si>
+  <si>
+    <t> promote quality and sustainable production of small &amp; large cardamom</t>
+  </si>
+  <si>
+    <t>Crop Improvement &amp; Biotechnology, Agronomy &amp; Soil Science, Crop Protection and Post-harvest &amp; Transfer of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germplasm Conservation &amp; hybridization programme, Weather Monitoring &amp; Crop Impact studies, Monitoring of Pesticide Residues, Soil Health Analysis, Post Harvest Technologies and Farm Mechanization, Pest and Disease surveillance, Screening of germplasm for Pests and diseases, evaluation of pesticides and bio agents</t>
+  </si>
+  <si>
+    <t>Black pepper, Cardamom, Ginger, Turmeric, Cinnamon, Vanilla, Clove, Nutmeg, Paprika, Garcinia</t>
+  </si>
+  <si>
+    <t>Crop Improvement and Biotechnology, Crop Production and Post Harvest Technology, Crop Protection, Social Science</t>
+  </si>
+  <si>
+    <t>Collection and characterization, breeding for better varieties: conventional and biotechnological approaches, undertaking research on plant pathogens, insects and plant parasitic nematodes, Statistics, Economics and Extension</t>
+  </si>
+  <si>
+    <t>world's largest germplasm collection in various spices , Twenty nine improved varieties of spices crops have been released, developed weather based models for yield prediction, reliable and sensitive diagnostic tools have been standardized for rapid detection of viruses, bacteria, fungi and nematodes infecting spices, Mapped efficient spice producing zones,</t>
+  </si>
+  <si>
+    <t>Central Instrumentation Facilities, Central instrumentation lab, Research Lab</t>
+  </si>
+  <si>
+    <t>Scanning electron microscope, transmission electron microscope, confocal microscope, micro CT, Smart tissue processor, robotic cover slipper &amp; auto strainer, rotary microtome, saw microtome, tissue embedder,  FT Raman spectroscopy, FTIR spectroscopy,UV Vis spectroscopy, HPLC, Thermal Analysers ,Dynamic mechanical analysers, UTM, Vickers hardness, profilometer, OT for large and small animals</t>
+  </si>
+  <si>
+    <t>facility for large scale production of Bio-agents, full-fledged research laboratories and field blocks, a weather station</t>
+  </si>
+  <si>
+    <t>The National Repository of Phytophthora, 
+Repository of biocontrol agents, 
+Accredited virus indexing facility, 
+Molecular plant pathology lab, 
+Insect biocontrol laboratory, 
+Nematology laboratory, The global genebank of spices, DUS testing facility, ArcGIS software, Plant Growth chamber, Concentrated Solar Thermal Curing unit for turmeric curing, Agro Processing Centre for Spices, UV-VIS Spectrophotometer, Chlorophyll fluorescence system</t>
+  </si>
+  <si>
+    <t>release of nearly 49 improved varieties,  Obtained four patents for Starch based biodegradable plastics, Obtained  a patent for producing Cassava alcohol, Patent for mobile starch extraction unit, patent for Starch based biodegradable plastics, patent for process and plant for producing decontaminated water from industrial effluents of cassava starch factories, patent for low cost biotechnique to extract starchy flour with modified functional attributes from cassava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of bioprocess for the production of alcohol from cassava, Development of laboratory bioprocess for the production of L-glutamic acid, citric acid, aroma compounds and mushrooms, </t>
+  </si>
+  <si>
+    <t>Patent granted for an invention entitled A multi-spectral diffuse reflectance imaging system for diagnosis of oral cavity cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed “Coirolite” from coir waste and Phenol Formaldehyde, Evolved receipe for
+rubber backed tiles of
+better dimensional
+stability, Novel coir products were produced from yarn </t>
+  </si>
+  <si>
+    <t>Released eight high yielding cardamom selections/hybrids suitable for different cardamom growing zones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +389,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -329,6 +439,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202020"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -367,11 +512,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,16 +559,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,7 +577,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,25 +586,56 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,9 +941,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,187 +957,187 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -967,15 +1151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="237.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" customWidth="1"/>
@@ -983,35 +1170,35 @@
     <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="2"/>
@@ -1025,36 +1212,36 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="180" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:20" ht="180" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1963</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1067,32 +1254,34 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="396.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:20" ht="396.75" thickBot="1">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>1975</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1105,34 +1294,36 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="360.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:20" ht="360.75" thickBot="1">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1986</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1145,29 +1336,35 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:20" ht="116.25" thickBot="1">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1990</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1179,19 +1376,33 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:20" ht="101.25" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1203,19 +1414,31 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:20" ht="186.75" thickBot="1">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1227,19 +1450,33 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:20" ht="282" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1251,19 +1488,30 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:20" ht="167.25" thickBot="1">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1275,19 +1523,31 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:20" ht="129" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1299,19 +1559,31 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:20" ht="320.25" thickBot="1">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1323,19 +1595,19 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1347,19 +1619,19 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1371,19 +1643,19 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1395,19 +1667,19 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1419,19 +1691,19 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1443,19 +1715,19 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1467,19 +1739,19 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1491,19 +1763,19 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1515,19 +1787,19 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1539,19 +1811,19 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1563,19 +1835,19 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1587,19 +1859,19 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1611,19 +1883,19 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1635,19 +1907,19 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1659,19 +1931,19 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1683,19 +1955,19 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1707,19 +1979,19 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1731,19 +2003,19 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1755,19 +2027,19 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1779,19 +2051,19 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1803,19 +2075,19 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1827,19 +2099,19 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1851,19 +2123,19 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1875,19 +2147,19 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1899,19 +2171,19 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -1923,19 +2195,19 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -1947,31 +2219,31 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:20" ht="45.75" thickBot="1">
+      <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>1997</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="24" t="s">
+      <c r="G38" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -1983,31 +2255,31 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:20" ht="27" thickBot="1">
+      <c r="A39" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1966</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="27">
-        <v>1966</v>
-      </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="28" t="s">
+      <c r="G39" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -2019,7 +2291,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -2040,7 +2312,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -2062,7 +2334,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -2084,7 +2356,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15.75" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2106,7 +2378,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2128,7 +2400,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2150,7 +2422,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2172,7 +2444,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15.75" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2194,7 +2466,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2216,7 +2488,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2238,7 +2510,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15.75" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2260,7 +2532,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="15.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2282,7 +2554,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2304,7 +2576,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2326,7 +2598,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2348,7 +2620,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2370,7 +2642,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2392,7 +2664,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="15.75" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2414,7 +2686,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15.75" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2436,7 +2708,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15.75" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2458,7 +2730,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="15.75" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2480,7 +2752,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="15.75" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2502,7 +2774,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15.75" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2524,7 +2796,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="15.75" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2546,7 +2818,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15.75" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2568,7 +2840,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="15.75" thickBot="1">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2590,7 +2862,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15.75" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2612,7 +2884,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="15.75" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2634,7 +2906,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="15.75" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2656,7 +2928,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="15.75" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2678,7 +2950,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="15.75" thickBot="1">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2700,7 +2972,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="15.75" thickBot="1">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2722,7 +2994,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="15.75" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -2744,7 +3016,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="15.75" thickBot="1">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -2766,7 +3038,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="15.75" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -2788,7 +3060,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="15.75" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -2810,7 +3082,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="15.75" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -2832,7 +3104,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="15.75" thickBot="1">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -2854,7 +3126,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="15.75" thickBot="1">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -2876,7 +3148,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="15.75" thickBot="1">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -2898,7 +3170,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="15.75" thickBot="1">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -2920,7 +3192,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="15.75" thickBot="1">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -2942,7 +3214,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="15.75" thickBot="1">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -2964,7 +3236,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="15.75" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2986,7 +3258,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="15.75" thickBot="1">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -3008,7 +3280,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="15.75" thickBot="1">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -3030,7 +3302,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="15.75" thickBot="1">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -3052,7 +3324,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="15.75" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -3074,7 +3346,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="15.75" thickBot="1">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>institute</t>
   </si>
@@ -351,12 +351,21 @@
   <si>
     <t>Released eight high yielding cardamom selections/hybrids suitable for different cardamom growing zones</t>
   </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>Fishing Technology Division, Fish Processing Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Science &amp; Marine Pollution, Responsible fish harvesting systems, Processing, By products, Packaging, Pilot Plant, </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +483,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -527,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,10 +1171,10 @@
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,17 +1638,25 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="60.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>111</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>110</v>
+      </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="2"/>
@@ -2255,7 +2282,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="27" thickBot="1">
+    <row r="39" spans="1:20" ht="17.25" thickBot="1">
       <c r="A39" s="25" t="s">
         <v>67</v>
       </c>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nithin\Downloads\Task-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>institute</t>
   </si>
@@ -147,12 +152,6 @@
   </si>
   <si>
     <t>Achievements</t>
-  </si>
-  <si>
-    <t>Research Divisions</t>
-  </si>
-  <si>
-    <t>Ongoing Researches</t>
   </si>
   <si>
     <t>R&amp;D Infrastructure</t>
@@ -350,6 +349,12 @@
   </si>
   <si>
     <t>Released eight high yielding cardamom selections/hybrids suitable for different cardamom growing zones</t>
+  </si>
+  <si>
+    <t>Ongoing_Researches</t>
+  </si>
+  <si>
+    <t>Research_Divisions</t>
   </si>
 </sst>
 </file>
@@ -646,6 +651,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -693,7 +701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,7 +736,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,7 +949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -1152,25 +1160,25 @@
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="84.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
     <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="237.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="237.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1193,13 +1201,13 @@
         <v>43</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1212,7 +1220,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="180" thickBot="1">
+    <row r="2" spans="1:20" ht="186" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1220,28 +1228,28 @@
         <v>1963</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1254,7 +1262,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="396.75" thickBot="1">
+    <row r="3" spans="1:20" ht="409.6" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1262,26 +1270,26 @@
         <v>1975</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1294,7 +1302,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="360.75" thickBot="1">
+    <row r="4" spans="1:20" ht="331.8" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1302,28 +1310,28 @@
         <v>1986</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1336,7 +1344,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="116.25" thickBot="1">
+    <row r="5" spans="1:20" ht="120" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1344,26 +1352,26 @@
         <v>1990</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>74</v>
-      </c>
       <c r="J5" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1376,31 +1384,31 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="101.25" thickBot="1">
+    <row r="6" spans="1:20" ht="97.8" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="2"/>
@@ -1414,30 +1422,30 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="186.75" thickBot="1">
+    <row r="7" spans="1:20" ht="166.8" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1450,32 +1458,32 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="282" thickBot="1">
+    <row r="8" spans="1:20" ht="265.2" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="I8" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="J8" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1488,29 +1496,29 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="167.25" thickBot="1">
+    <row r="9" spans="1:20" ht="159.6" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1523,30 +1531,32 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="129" thickBot="1">
+    <row r="10" spans="1:20" ht="120" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="I10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="J10" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1559,30 +1569,32 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="320.25" thickBot="1">
+    <row r="11" spans="1:20" ht="318" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="J11" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1595,7 +1607,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+    <row r="12" spans="1:20" ht="15" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1631,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:20" ht="15" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1643,7 +1655,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1679,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row r="16" spans="1:20" ht="15" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1727,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1">
+    <row r="17" spans="1:20" ht="15" thickBot="1">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1751,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1">
+    <row r="18" spans="1:20" ht="15" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+    <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1799,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1823,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1">
+    <row r="21" spans="1:20" ht="15" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1847,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+    <row r="22" spans="1:20" ht="15" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
@@ -1859,7 +1871,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+    <row r="23" spans="1:20" ht="15" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1895,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1">
+    <row r="24" spans="1:20" ht="15" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1919,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1">
+    <row r="25" spans="1:20" ht="15" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1943,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1">
+    <row r="26" spans="1:20" ht="15" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1967,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1">
+    <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1991,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1">
+    <row r="28" spans="1:20" ht="15" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2015,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+    <row r="29" spans="1:20" ht="15" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2039,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1">
+    <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
@@ -2051,7 +2063,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+    <row r="31" spans="1:20" ht="15" thickBot="1">
       <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
@@ -2075,7 +2087,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1">
+    <row r="32" spans="1:20" ht="15" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -2099,7 +2111,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1">
+    <row r="33" spans="1:20" ht="15" thickBot="1">
       <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
@@ -2123,7 +2135,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1">
+    <row r="34" spans="1:20" ht="15" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2159,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
@@ -2171,7 +2183,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+    <row r="36" spans="1:20" ht="15" thickBot="1">
       <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2207,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1">
+    <row r="37" spans="1:20" ht="15" thickBot="1">
       <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
@@ -2219,7 +2231,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" ht="45.75" thickBot="1">
+    <row r="38" spans="1:20" ht="43.8" thickBot="1">
       <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
@@ -2227,19 +2239,19 @@
         <v>1997</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="G38" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -2255,27 +2267,27 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" ht="27" thickBot="1">
+    <row r="39" spans="1:20" ht="17.399999999999999" thickBot="1">
       <c r="A39" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="26">
         <v>1966</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -2291,7 +2303,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75" thickBot="1">
+    <row r="40" spans="1:20" ht="15" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -2312,7 +2324,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75" thickBot="1">
+    <row r="41" spans="1:20" ht="15" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -2334,7 +2346,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75" thickBot="1">
+    <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -2356,7 +2368,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75" thickBot="1">
+    <row r="43" spans="1:20" ht="15" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -2378,7 +2390,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75" thickBot="1">
+    <row r="44" spans="1:20" ht="15" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -2400,7 +2412,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" thickBot="1">
+    <row r="45" spans="1:20" ht="15" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -2422,7 +2434,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" thickBot="1">
+    <row r="46" spans="1:20" ht="15" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -2444,7 +2456,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" ht="15.75" thickBot="1">
+    <row r="47" spans="1:20" ht="15" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2466,7 +2478,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" thickBot="1">
+    <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2488,7 +2500,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" ht="15.75" thickBot="1">
+    <row r="49" spans="1:20" ht="15" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -2510,7 +2522,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" ht="15.75" thickBot="1">
+    <row r="50" spans="1:20" ht="15" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -2532,7 +2544,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" ht="15.75" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -2554,7 +2566,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" ht="15.75" thickBot="1">
+    <row r="52" spans="1:20" ht="15" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -2576,7 +2588,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1">
+    <row r="53" spans="1:20" ht="15" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -2598,7 +2610,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" ht="15.75" thickBot="1">
+    <row r="54" spans="1:20" ht="15" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -2620,7 +2632,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" ht="15.75" thickBot="1">
+    <row r="55" spans="1:20" ht="15" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -2642,7 +2654,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" ht="15.75" thickBot="1">
+    <row r="56" spans="1:20" ht="15" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -2664,7 +2676,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" ht="15.75" thickBot="1">
+    <row r="57" spans="1:20" ht="15" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2686,7 +2698,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1">
+    <row r="58" spans="1:20" ht="15" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2708,7 +2720,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" ht="15.75" thickBot="1">
+    <row r="59" spans="1:20" ht="15" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -2730,7 +2742,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" ht="15.75" thickBot="1">
+    <row r="60" spans="1:20" ht="15" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -2752,7 +2764,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" ht="15.75" thickBot="1">
+    <row r="61" spans="1:20" ht="15" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
@@ -2774,7 +2786,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
@@ -2796,7 +2808,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1">
+    <row r="63" spans="1:20" ht="15" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -2818,7 +2830,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" thickBot="1">
+    <row r="64" spans="1:20" ht="15" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -2840,7 +2852,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" ht="15.75" thickBot="1">
+    <row r="65" spans="1:20" ht="15" thickBot="1">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
@@ -2862,7 +2874,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1">
+    <row r="66" spans="1:20" ht="15" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
@@ -2884,7 +2896,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" thickBot="1">
+    <row r="67" spans="1:20" ht="15" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
@@ -2906,7 +2918,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" ht="15.75" thickBot="1">
+    <row r="68" spans="1:20" ht="15" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -2928,7 +2940,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" thickBot="1">
+    <row r="69" spans="1:20" ht="15" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -2950,7 +2962,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" ht="15.75" thickBot="1">
+    <row r="70" spans="1:20" ht="15" thickBot="1">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
@@ -2972,7 +2984,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" ht="15.75" thickBot="1">
+    <row r="71" spans="1:20" ht="15" thickBot="1">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
@@ -2994,7 +3006,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" ht="15.75" thickBot="1">
+    <row r="72" spans="1:20" ht="15" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
@@ -3016,7 +3028,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" ht="15.75" thickBot="1">
+    <row r="73" spans="1:20" ht="15" thickBot="1">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
@@ -3038,7 +3050,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1">
+    <row r="74" spans="1:20" ht="15" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
@@ -3060,7 +3072,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75" thickBot="1">
+    <row r="75" spans="1:20" ht="15" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
@@ -3082,7 +3094,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" ht="15.75" thickBot="1">
+    <row r="76" spans="1:20" ht="15" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
@@ -3104,7 +3116,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1">
+    <row r="77" spans="1:20" ht="15" thickBot="1">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
@@ -3126,7 +3138,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" ht="15.75" thickBot="1">
+    <row r="78" spans="1:20" ht="15" thickBot="1">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
@@ -3148,7 +3160,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" ht="15.75" thickBot="1">
+    <row r="79" spans="1:20" ht="15" thickBot="1">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
@@ -3170,7 +3182,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" ht="15.75" thickBot="1">
+    <row r="80" spans="1:20" ht="15" thickBot="1">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
@@ -3192,7 +3204,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" ht="15.75" thickBot="1">
+    <row r="81" spans="1:20" ht="15" thickBot="1">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
@@ -3214,7 +3226,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" ht="15.75" thickBot="1">
+    <row r="82" spans="1:20" ht="15" thickBot="1">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3236,7 +3248,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" ht="15.75" thickBot="1">
+    <row r="83" spans="1:20" ht="15" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3258,7 +3270,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" ht="15.75" thickBot="1">
+    <row r="84" spans="1:20" ht="15" thickBot="1">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -3280,7 +3292,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" ht="15.75" thickBot="1">
+    <row r="85" spans="1:20" ht="15" thickBot="1">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
@@ -3302,7 +3314,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" ht="15.75" thickBot="1">
+    <row r="86" spans="1:20" ht="15" thickBot="1">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
@@ -3324,7 +3336,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" ht="15.75" thickBot="1">
+    <row r="87" spans="1:20" ht="15" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
@@ -3346,7 +3358,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" ht="15.75" thickBot="1">
+    <row r="88" spans="1:20" ht="15" thickBot="1">
       <c r="A88" s="4"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nithin\Documents\GitHub\Task-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="169">
   <si>
     <t>institute</t>
   </si>
@@ -164,9 +159,6 @@
   </si>
   <si>
     <t>Crop Production, Crop Improvement, Crop Protection, Crop Utilization, Social Sciences, Regional Center</t>
-  </si>
-  <si>
-    <t>collection germplasm of different tuber crops from different parts of the world and conserving it in field gene bank as well as in vitro,Development of new varieties of tuber crops with higher yield and other attributes suitable for industrial applications as well as for food purpose,developing new agro techniques for tropical tuber crops in different agro climatic regions, develop strategies and products for managing pests and diseases affecting tropical tuber crops, value addition and post harvest processing of tropical tuber crops</t>
   </si>
   <si>
     <t>Interdisciplinary</t>
@@ -378,23 +370,174 @@
     <t>Clinical Research, Fundamental Research, Pharmacology Research, Medicinal Plant Research, Drug standardization Research, Literary Research &amp; Documentation</t>
   </si>
   <si>
-    <t>Pharmacology,</t>
-  </si>
-  <si>
     <t>Pharmacology, X-Ray, E.C.G., OPD-cum-Labs</t>
   </si>
   <si>
     <t>standardization of critical aspects of fluid control and measurement in Industrial processes,  technological development for the flow products industry</t>
   </si>
   <si>
-    <t>Air Medium, Water Medium, Oil Medium, Natural Gas Medium, Noise and Vibration, Electro Technical and Thermal</t>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>collection of germplasm of different tuber crops  and conserving it in field gene bank as well as in vitro,Development of new varieties of tuber crops with higher yield and other attributes ,developing new agro techniques for tropical tuber crops in different agro climatic regions, develop strategies and products for managing pests and diseases affecting tropical tuber crops, value addition and post harvest processing of tropical tuber crops</t>
+  </si>
+  <si>
+    <t>Air Medium, Water Medium, Oil Medium, Natural Gas Medium, Noise and Vibration, Electro Technical and Thermal, Mechanical Measurements, Multiphase Facility, CFD and Software</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>KANJIKODE WEST, PALAKKAD - 678623</t>
+  </si>
+  <si>
+    <t>customercare@fcriindia.com</t>
+  </si>
+  <si>
+    <t>91-491-2569010</t>
+  </si>
+  <si>
+    <t>http://www.fcriindia.com/</t>
+  </si>
+  <si>
+    <t>Flow simulation through different types of flow meters, valves,  meter/flow product calibration &amp; Testing/ Consultancy services, calibration and testing of flow products in water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABL accreditation for testing services in fluid flow testing and fluid flow calibaration, </t>
+  </si>
+  <si>
+    <t>Primary and secondary air flow labs, 20 bar Air Calibration &amp; Test Facility, Primary Standard Gravimetric System (PSGS), Closed Loop Air Test Facility (CLATF), Water flow labs (60MM and 100MM), 250 bar Natural Gas Calibration and Test Laboratory, MULTIVISCOUS TEST LOOP, ENVIRONMENTAL QUALIFICATION LAB</t>
+  </si>
+  <si>
+    <t>Crop Improvement, Crop Protection, Crop Production, Social Science, Physiology, Biochemistry &amp; Post Harvest Technology</t>
+  </si>
+  <si>
+    <t>Kasaragod, Kerala-671124</t>
+  </si>
+  <si>
+    <t>director.cpcri@icar.gov.in</t>
+  </si>
+  <si>
+    <t>+91 4994-232894</t>
+  </si>
+  <si>
+    <t>https://cpcri.icar.gov.in/page/index</t>
+  </si>
+  <si>
+    <t>Research on coconut, arecanut and cocoa</t>
+  </si>
+  <si>
+    <t>Farm, Agricultural Technology Information Centre</t>
+  </si>
+  <si>
+    <t>World's largest repository of coconut germplasm with 455 accessions, International Coconut Gene Bank for South Asia &amp; Middle East, Released more than 20 improved varieties of coconut,  178 germplasm collection units in Arecanut, released 11, improved vaieties of Arecanut, Development of microsatellite panel for hybrid purity assessment in coconut, COCONUT ARTIFICIAL POLLINATION MANAGEMENT SYSTEM, 8 patents for different aspects of coconut, arecanut and cocoa</t>
+  </si>
+  <si>
+    <t>Coconut tissue culture, Coconut breeding , Genetic resources management in plantation crops, Coconut based cropping/farming system</t>
+  </si>
+  <si>
+    <t>National Institute for Research &amp; Development in Defence Shipbuilding</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram,Kerala, India, Pin Code:695022</t>
+  </si>
+  <si>
+    <t>webmaster@vssc.gov.in</t>
+  </si>
+  <si>
+    <t>0471- 2564292</t>
+  </si>
+  <si>
+    <t>https://www.vssc.gov.in/</t>
+  </si>
+  <si>
+    <t>Rocket research and launch vehicle projects, Research and Development in space science and planetary exploration</t>
+  </si>
+  <si>
+    <t>The Space Physics Laboratory (SPL), Space Sciences</t>
+  </si>
+  <si>
+    <t>whole gamut of atmospheric, space and planetary sciences right from the surface of Earth to the ionosphere-magnetosphere and the solar system</t>
+  </si>
+  <si>
+    <t>Civil Station Post, Kannur - 670 002</t>
+  </si>
+  <si>
+    <t>rckannur@sugarcane.res.in</t>
+  </si>
+  <si>
+    <t>https://sugarcane.icar.gov.in/index.php/en/abt-us-3/2014-04-23-10-18-59?id=43</t>
+  </si>
+  <si>
+    <t>0497-2705054</t>
+  </si>
+  <si>
+    <t>Plantation Crops</t>
+  </si>
+  <si>
+    <t>Collection, Maintanence , Evaluation, Documentation and Utlisation of sugarcane germplasm</t>
+  </si>
+  <si>
+    <t>1806 accessions under international collection and 1562 under Indian collection under germplasm assemby unit</t>
+  </si>
+  <si>
+    <t>Crop Production, Crop Improvement, Crop Protection, Statistics and Economics</t>
+  </si>
+  <si>
+    <t>Gel documentation system,  PCR machines, Refrigerated centrifuge, Vertical Electrophoresis system, Genetics-Cytogenetics-Transformation lab, Biotechnology, Micropropagation Lab, Plant Pathology Lab,  Plant Physiology Lab, Agronomy, Microbiology Lab, Polarimeter , Microwave Muffle Furnace, UV Vis Spectrophotometer</t>
+  </si>
+  <si>
+    <t>P.B.NO:6520, Vellayambalam,Thiruvananthapuram - 695033</t>
+  </si>
+  <si>
+    <t>91-471-272-3333</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>strengthening national technological capabilities,  building capacities in emerging/enabling technologies</t>
+  </si>
+  <si>
+    <t>High Performance Computing, Multi-lingual Computing, Professional Electronics, Information and Cyber Security, Health Informatics ,Software Technologies</t>
+  </si>
+  <si>
+    <t>Kerala | Pin: 678557</t>
+  </si>
+  <si>
+    <t>Ahalia Integrated Campus, Kozhippara P. O | Palakkad, Kerala | Pin: 678557</t>
+  </si>
+  <si>
+    <t>https://iitpkd.ac.in/</t>
+  </si>
+  <si>
+    <t>04923 226300 </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Multidisciplinary Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health&amp;Biomedical Science &amp; Engineering, Manufacturing &amp; Materials, Water Resources  and Hydrology, Geotechnical Engineering, Ecology and Sustainability, Agricultural Engineering and Food Science, Data Science and Artificial Intelligence , Cyber Physical Systems, Cyber Security
+</t>
+  </si>
+  <si>
+    <t>Central Instrumentation Facility and Central Micro-Nano Fabrication Facility, Central Facility for Materials and Manufacturing Engineering, Chandra-High Performance Computing Cluster (HPC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,8 +689,107 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF676767"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343232"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF828282"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4E4E4E"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -601,10 +843,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,9 +973,69 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,7 +1094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,7 +1129,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,9 +1342,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,187 +1358,187 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.45">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.45">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.45">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="14.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.45">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="14.45">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.45">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="14.45">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="14.45">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="14.45">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="14.45">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="14.45">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="14.45">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="14.45">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="14.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1247,28 +1550,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="84.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="237.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="237.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="36" customHeight="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1282,35 +1589,47 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="154.5" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1323,34 +1642,34 @@
       <c r="D2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="11"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="217.5" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1363,36 +1682,40 @@
       <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="K3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="M3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="360.75" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1405,36 +1728,40 @@
       <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="K4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="M4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="N4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="116.25" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1447,71 +1774,75 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="I5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" ht="101.25" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" ht="172.5" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1520,72 +1851,80 @@
       <c r="D7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" ht="282" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="K8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="31" t="s">
+      <c r="M8" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" ht="167.25" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1594,105 +1933,117 @@
       <c r="D9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="K9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" ht="129" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="K10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="M10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="304.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" ht="320.25" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="M11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1701,22 +2052,26 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="126" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" ht="144.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1725,34 +2080,38 @@
       <c r="D13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="M13" s="20"/>
+      <c r="N13" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" ht="60.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1761,32 +2120,36 @@
       <c r="D14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="45" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="46" t="s">
+      <c r="M14" s="20"/>
+      <c r="N14" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" ht="73.5" customHeight="1" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
@@ -1795,619 +2158,813 @@
       <c r="D15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="E15" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" ht="52.5" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="D16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" ht="72" thickBot="1">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="D18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="20"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" ht="90.75" thickBot="1">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="D19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" ht="64.5" thickBot="1">
       <c r="A20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>156</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="20"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="172.5" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="E21" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="20"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1">
       <c r="A29" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1">
       <c r="A30" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
       <c r="A31" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1">
       <c r="A33" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="17"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:24" ht="45.75" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1997</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1997</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="23" t="s">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A38" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="B38" s="25">
+        <v>1966</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="I38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="25">
-        <v>1966</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -2417,18 +2974,23 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -2438,19 +3000,23 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -2460,19 +3026,23 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -2482,19 +3052,23 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -2504,19 +3078,23 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -2526,19 +3104,23 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -2548,19 +3130,23 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -2570,19 +3156,23 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -2592,19 +3182,23 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -2614,19 +3208,23 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2636,19 +3234,23 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -2658,19 +3260,23 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -2680,19 +3286,23 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -2702,19 +3312,23 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -2724,19 +3338,23 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -2746,19 +3364,23 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -2768,19 +3390,23 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -2790,19 +3416,23 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -2812,19 +3442,23 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="3"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -2834,19 +3468,23 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.75" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="3"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -2856,19 +3494,23 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -2878,19 +3520,23 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -2900,19 +3546,23 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -2922,19 +3572,23 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="3"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -2944,19 +3598,23 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -2966,19 +3624,23 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+    </row>
+    <row r="65" spans="1:24" ht="15.75" thickBot="1">
       <c r="A65" s="4"/>
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -2988,19 +3650,23 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+    </row>
+    <row r="66" spans="1:24" ht="15.75" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3010,19 +3676,23 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+    </row>
+    <row r="67" spans="1:24" ht="15.75" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -3032,19 +3702,23 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+    </row>
+    <row r="68" spans="1:24" ht="15.75" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -3054,19 +3728,23 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+    </row>
+    <row r="69" spans="1:24" ht="15.75" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -3076,19 +3754,23 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+    </row>
+    <row r="70" spans="1:24" ht="15.75" thickBot="1">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -3098,19 +3780,23 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+    </row>
+    <row r="71" spans="1:24" ht="15.75" thickBot="1">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -3120,19 +3806,23 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+    </row>
+    <row r="72" spans="1:24" ht="15.75" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="3"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="3"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -3142,19 +3832,23 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" thickBot="1">
       <c r="A73" s="4"/>
       <c r="B73" s="3"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="3"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -3164,19 +3858,23 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+    </row>
+    <row r="74" spans="1:24" ht="15.75" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -3186,19 +3884,23 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+    </row>
+    <row r="75" spans="1:24" ht="15.75" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="3"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -3208,19 +3910,23 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+    </row>
+    <row r="76" spans="1:24" ht="15.75" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="3"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="3"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -3230,19 +3936,23 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+    </row>
+    <row r="77" spans="1:24" ht="15.75" thickBot="1">
       <c r="A77" s="4"/>
       <c r="B77" s="3"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -3252,19 +3962,23 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+    </row>
+    <row r="78" spans="1:24" ht="15.75" thickBot="1">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -3274,19 +3988,23 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" thickBot="1">
       <c r="A79" s="4"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -3296,19 +4014,23 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+    </row>
+    <row r="80" spans="1:24" ht="15.75" thickBot="1">
       <c r="A80" s="4"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="3"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -3318,19 +4040,23 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+    </row>
+    <row r="81" spans="1:24" ht="15.75" thickBot="1">
       <c r="A81" s="4"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="3"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -3340,19 +4066,23 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+    </row>
+    <row r="82" spans="1:24" ht="15.75" thickBot="1">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -3362,19 +4092,23 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+    </row>
+    <row r="83" spans="1:24" ht="15.75" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -3384,19 +4118,23 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-    </row>
-    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+    </row>
+    <row r="84" spans="1:24" ht="15.75" thickBot="1">
       <c r="A84" s="4"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="3"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -3406,19 +4144,23 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+    </row>
+    <row r="85" spans="1:24" ht="15.75" thickBot="1">
       <c r="A85" s="4"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="3"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -3428,19 +4170,23 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+    </row>
+    <row r="86" spans="1:24" ht="15.75" thickBot="1">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="3"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -3450,19 +4196,23 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-    </row>
-    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+    </row>
+    <row r="87" spans="1:24" ht="15.75" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="K87" s="3"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3472,28 +4222,10 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
-    </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -10,12 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$86</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="246">
   <si>
     <t>institute</t>
   </si>
@@ -194,12 +197,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>neurodevelopmental disorders</t>
-  </si>
-  <si>
-    <t>Best paper award for the research work" Sensitivity of ISAA among children with autism in the State of Kerala" at Centre for Disability studies on Dec, 2013 by BincyKalam, Akhila Vinod.</t>
-  </si>
-  <si>
     <t>Cashew and Coco Development Board</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
   </si>
   <si>
     <t>overall development of Cashew and Cocoa in India</t>
-  </si>
-  <si>
-    <t>Exposure trip in collaboration with Indian institute of horticulture, Nagaland for 48 cashew farmers from Nagaland to Zonal Agricultural Research Station(ZARS) &amp; KVK,, Brahmavar, Karnataka from 12th -14th March, 2010.</t>
   </si>
   <si>
     <t>Biotechnology</t>
@@ -508,9 +502,6 @@
     <t>High Performance Computing, Multi-lingual Computing, Professional Electronics, Information and Cyber Security, Health Informatics ,Software Technologies</t>
   </si>
   <si>
-    <t>Kerala | Pin: 678557</t>
-  </si>
-  <si>
     <t>Ahalia Integrated Campus, Kozhippara P. O | Palakkad, Kerala | Pin: 678557</t>
   </si>
   <si>
@@ -531,13 +522,257 @@
   </si>
   <si>
     <t>Central Instrumentation Facility and Central Micro-Nano Fabrication Facility, Central Facility for Materials and Manufacturing Engineering, Chandra-High Performance Computing Cluster (HPC)</t>
+  </si>
+  <si>
+    <t> diseases affecting coconut palm with special emphasis on root(wilt) disease</t>
+  </si>
+  <si>
+    <t>material testing and quality improvement training, third tier testing laboratory for Govt. agencies</t>
+  </si>
+  <si>
+    <t>Bio 360 Life Sciences Park, Thonnakkal, Trivandrum</t>
+  </si>
+  <si>
+    <t>netadmin@iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>develop state-of-the-art infrastructure, skilled scientific &amp; technical personnel, and services &amp; products in virology to serve local, national and global needs</t>
+  </si>
+  <si>
+    <t> Infrastructure development</t>
+  </si>
+  <si>
+    <t>Department of Clinical Virology, Department of Viral Diagnostics, Department of Viral Vaccines, Department of Antiviral Drug Research, Department of Virus Applications, Department of Virus Epidemiology, Vector Dynamics &amp; Public Health, Department of Virus Genomics, Bioinformatics &amp; Statistics, Department of General Virology</t>
+  </si>
+  <si>
+    <t>Prasanth Nagar, Medical College P.O, Ulloor,Thiruvananthapuram-695011</t>
+  </si>
+  <si>
+    <t>https://cds.edu/#m-11-2021</t>
+  </si>
+  <si>
+    <t>91-471- 2774200</t>
+  </si>
+  <si>
+    <t>Social Science Research</t>
+  </si>
+  <si>
+    <t>impacts of extraneous cultural flows, opportunities opened by decentralisation for women, challenges in urban governance ,  state policy and the implication of gender and caste / religious identities in international migration of women workers, ssessment of educational progress, under-nutrition, dietary diversification as well as over/under utilisation of health care , welfare implications of protectionism and the optimality of the mechanism of trade negotiations, Implications of trade and liberalisation on the Indian economy,  political economy of displacement and livelihood issues, declining labour force participation of women and its causal factors</t>
+  </si>
+  <si>
+    <t>Culture and Development, Decentralisation and Governance,Gender and Development, Human Development, Health and Education, Industry and Trade, Innovation and Technology, Labour, Employment and Social Security, Macroeconomic Performance, Migration, Plantation Crops, Politics and Development</t>
+  </si>
+  <si>
+    <t>Balaramapuram, Trivandrum</t>
+  </si>
+  <si>
+    <t>crsbalaram@kau.in</t>
+  </si>
+  <si>
+    <t>http://crsbalaram.kau.in</t>
+  </si>
+  <si>
+    <t>91-471-2400621</t>
+  </si>
+  <si>
+    <t>Plantation Cops</t>
+  </si>
+  <si>
+    <t>Kudappanakkunnu P.O., Thiruvananthapuram – 695 043</t>
+  </si>
+  <si>
+    <t> 0471-2730788</t>
+  </si>
+  <si>
+    <t>Small scale Indsutry</t>
+  </si>
+  <si>
+    <t>technological, commercial and academic developments in the entire gamut of activities related to the coconut fiber sector</t>
+  </si>
+  <si>
+    <t>Collection and Interpretation of Database on Coir Sector of Kerala, Innovative Product Development in coir based on market research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed 14 products based on coir like ladies fancy bag, handbag, printed mat, chappel etc. </t>
+  </si>
+  <si>
+    <t>High-Tech Coir Park</t>
+  </si>
+  <si>
+    <t>Agronomy and Soils, Biotechnology, Botany, Genome Analysis, Germplasm, Plant Pathology, Plant Physiology, Exploitation Studies, Rubber Technology, Technical Consultancy, Agricultural Economics</t>
+  </si>
+  <si>
+    <t>Improvement in production and productivity, Integrated approaches to reduce cost of production and improve quality competitiveness</t>
+  </si>
+  <si>
+    <t>Breeding and Release of clones, formulations and processes for different rubber products, Development of transgenic plants through genetic engineering</t>
+  </si>
+  <si>
+    <t>Economics of natural rubber cultivation, yield evaluation and cultural practices, Primary Processing, New coagulants, drying of rubber, quality improvement of natural rubber</t>
+  </si>
+  <si>
+    <t>TC-4/2322, GEM Building , Opposite CET, College of Engineering Trivandrum,Kerala State 695016</t>
+  </si>
+  <si>
+    <t>trestpark@kerala.gov.in</t>
+  </si>
+  <si>
+    <t>0471- 2598555</t>
+  </si>
+  <si>
+    <t>https://www.ncrmi.org/</t>
+  </si>
+  <si>
+    <t>https://trestpark.org/</t>
+  </si>
+  <si>
+    <t>promote partnership and interaction between academic community and industry</t>
+  </si>
+  <si>
+    <t>ANSYS,  Altair Hyperworks, Simulink, Solidworks, AutoCAD</t>
+  </si>
+  <si>
+    <t>Mundur-PO, Palakkad-678592</t>
+  </si>
+  <si>
+    <t>mail@irtc.org.in</t>
+  </si>
+  <si>
+    <t>0491 283 2663</t>
+  </si>
+  <si>
+    <t>Development Institution</t>
+  </si>
+  <si>
+    <t>sustainable solutions in the sector of solid waste management, watershed development, energy management, local planning and livelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Resource Management, Solid Waste Management, Energy, Social Sciences, Livelihood, </t>
+  </si>
+  <si>
+    <t>heavy duty oven, pH meter, UV spectrophotometer, atomic absorption spectrophotometer and automatic nitrogen analyser, Chemistry Laboratory,Water Testing, Soil Testing,  Compost Analysis, Electronics Laboratory</t>
+  </si>
+  <si>
+    <t>Soil and water conservation and improvement of soil nutrition, Recharging of open wells and bore wells, Mapping Spatial Distribution of Quarries in Thrissur, Palakkad and Kozhikode ,Studies on Microbial Inoculum Districts, Mapping Spatial Distribution of Quarries in Thrissur, Palakkad and Kozhikode Districts</t>
+  </si>
+  <si>
+    <t>Regional Cancer Center, Medical College Campus, Post Bag No.2417, Thiruvananthapuram, India 695011</t>
+  </si>
+  <si>
+    <t>webmaster@rcctvm.gov.in</t>
+  </si>
+  <si>
+    <t>https://www.rcctvm.gov.in/</t>
+  </si>
+  <si>
+    <t>https://www.irtc.org.in/</t>
+  </si>
+  <si>
+    <t>91-471-2442539</t>
+  </si>
+  <si>
+    <t>cancer diagnosis, treatment, palliation and rehabilitation </t>
+  </si>
+  <si>
+    <t>Government owned cancer treatment institution in the country to win the coveted NABH accreditation</t>
+  </si>
+  <si>
+    <t>Basic Research, Clinical Research</t>
+  </si>
+  <si>
+    <t>Delineation of the molecular mechanism of tumuorigenesis in cancers, Interpreting the molecular mechanisms behind cancer development and progression, eveloping cost effective screening methods for cancers especially cervical and lung cancer, cell signaling pathways in the development of breast cancer, cytogenetic and molecular studies in hematological malignancies, Multi-centre clinical trials, Newer diagnostic techniques, Fine-tuning of the current treatment protocols</t>
+  </si>
+  <si>
+    <t>Early Cancer Detection Clinics, Early Cancer Detection Clinics, Imaging services, Pathology services, Nuclear imaging services, Microbiology services, Cancer Research services</t>
+  </si>
+  <si>
+    <t>HIL Colony, Edayar Road,Pathalam, Eloor, Udyogamandal P.O.,Kochi-683 501</t>
+  </si>
+  <si>
+    <t>91-484-2547741</t>
+  </si>
+  <si>
+    <t>cipetkochi[at]gmail[dot]com</t>
+  </si>
+  <si>
+    <t>https://www.cipet.gov.in/</t>
+  </si>
+  <si>
+    <t>facilities in the areas of Design, CAD/CAM/CAE, Tooling &amp; Mould Manufacturing, Plastics Processing, Testing and Quality Assurance </t>
+  </si>
+  <si>
+    <t>Plastics Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>successful accomplishment of numerous R &amp; D projects in various streams of Plastics Engineering &amp; Technology, International Collaborations and Recognitions from universities in USA, Bazil, South Korea, Cannada etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biopolymers and Composites, Chemical Modification of Polymers, Natural Fiber Reinforced Polymer Composites, Polymer Blends, Alloys and Composites, Bionanocomposites
+</t>
+  </si>
+  <si>
+    <t>Sreekariyam P. O., Thiruvananthapuram 695 017</t>
+  </si>
+  <si>
+    <t>http://www.nish.ac.in/</t>
+  </si>
+  <si>
+    <t>nishinfo@nish.ac.in</t>
+  </si>
+  <si>
+    <t>91-471- 2944666</t>
+  </si>
+  <si>
+    <t>“Excellent” institute by the Rehabilitation Council of India, Grade A' institute by NAAC</t>
+  </si>
+  <si>
+    <t>identification, intervention, rehabilitation and education of individuals with disabilities</t>
+  </si>
+  <si>
+    <t>Hearing Sciences, Speech Language Sciences, Neuro-developmental Sciences</t>
+  </si>
+  <si>
+    <t>state-of-art audiologic tests equipments , Language Assessment Tools</t>
+  </si>
+  <si>
+    <t>Kera Bhavan, Kochi-682011</t>
+  </si>
+  <si>
+    <t>dccd@nic.in</t>
+  </si>
+  <si>
+    <t>https://www.dccd.gov.in/</t>
+  </si>
+  <si>
+    <t>0484-2377151 </t>
+  </si>
+  <si>
+    <t>Post Box No. 1603, Ernakulam North P.O.,Kochi-682 018</t>
+  </si>
+  <si>
+    <t>director.cmfri@icar.gov.in</t>
+  </si>
+  <si>
+    <t>https://www.cmfri.org.in/</t>
+  </si>
+  <si>
+    <t>91 484 2394357</t>
+  </si>
+  <si>
+    <t>estimation of marine fisheries landings and effort, taxonomy of marine organisms and the bio-economic characteristics of the exploited stocks of finfish and shellfish</t>
+  </si>
+  <si>
+    <t>development and refinement of a unique method for estimation- Stratified Multistage Random Sampling Method”</t>
+  </si>
+  <si>
+    <t>sea farming and coastal mariculture , human resources in mariculture , Production and marketing and supply chain management of marine fisheries in India, International trade analysis in seafood trade and Fish market grid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,12 +832,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
@@ -792,6 +1021,101 @@
       <color rgb="FF4E4E4E"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B494F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252424"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="Noto Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606060"/>
+      <name val="Titilliumtext25l400_wt"/>
     </font>
   </fonts>
   <fills count="3">
@@ -845,9 +1169,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,9 +1203,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -904,80 +1225,70 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,50 +1299,140 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,7 +1745,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,137 +1759,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.45">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.45">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.45">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.45">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.45">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.45">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1550,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,10 +1965,10 @@
     <col min="1" max="1" width="84.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="237.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" customWidth="1"/>
@@ -1589,16 +1990,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -1606,17 +2007,17 @@
       <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1629,7 +2030,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="154.5" thickBot="1">
+    <row r="2" spans="1:24" ht="153.75" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1646,16 +2047,16 @@
         <v>46</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>95</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>120</v>
+      <c r="M2" s="84" t="s">
+        <v>117</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="2"/>
@@ -1670,10 +2071,10 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="217.5" thickBot="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1975</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1689,19 +2090,19 @@
       <c r="I3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="41" t="s">
+      <c r="M3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>51</v>
       </c>
       <c r="O3" s="2"/>
@@ -1715,11 +2116,11 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="360.75" thickBot="1">
+    <row r="4" spans="1:24" ht="230.25" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>1986</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -1738,13 +2139,13 @@
       <c r="J4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>100</v>
+      <c r="K4" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="11" t="s">
@@ -1761,11 +2162,11 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="116.25" thickBot="1">
+    <row r="5" spans="1:24" ht="90.75" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1990</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1774,20 +2175,20 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>67</v>
+      <c r="L5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1804,33 +2205,33 @@
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>69</v>
+      <c r="B6" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="20"/>
+      <c r="M6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="19"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1846,30 +2247,30 @@
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>94</v>
+      <c r="J7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1882,36 +2283,36 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="282" thickBot="1">
+    <row r="8" spans="1:24" ht="243.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>95</v>
+      <c r="N8" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1924,33 +2325,33 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="167.25" thickBot="1">
+    <row r="9" spans="1:24" ht="141.75" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>85</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1967,30 +2368,32 @@
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>96</v>
+      <c r="N10" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2003,34 +2406,36 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="320.25" thickBot="1">
+    <row r="11" spans="1:24" ht="154.5" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="20" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>97</v>
+      <c r="L11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2043,23 +2448,41 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1">
+    <row r="12" spans="1:24" ht="100.5" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="N12" s="19"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2071,34 +2494,34 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="144.75" thickBot="1">
+    <row r="13" spans="1:24" ht="120.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="39" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="43" t="s">
-        <v>111</v>
+      <c r="L13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2115,28 +2538,28 @@
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="46" t="s">
-        <v>115</v>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2153,40 +2576,40 @@
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="H15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="N15" s="47" t="s">
         <v>126</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="N15" s="53" t="s">
-        <v>129</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2203,40 +2626,40 @@
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="H16" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="K16" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="L16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2251,21 +2674,21 @@
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2281,37 +2704,37 @@
       <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="H18" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="N18" s="20"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2327,38 +2750,38 @@
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="I19" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="K19" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="57" t="s">
         <v>152</v>
-      </c>
-      <c r="K19" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="63" t="s">
-        <v>155</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -2375,31 +2798,31 @@
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="65" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="J20" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="N20" s="20"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2415,34 +2838,34 @@
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="69" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="K21" s="16"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="N21" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>168</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2455,22 +2878,28 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+    <row r="22" spans="1:24" ht="29.25" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2486,19 +2915,19 @@
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2510,23 +2939,29 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+    <row r="24" spans="1:24" ht="29.25" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2538,23 +2973,33 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+    <row r="25" spans="1:24" ht="141.75" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2566,23 +3011,39 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+    <row r="26" spans="1:24" ht="243" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="19"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2598,19 +3059,19 @@
       <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2622,23 +3083,35 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+    <row r="28" spans="1:24" ht="39.75" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2650,23 +3123,41 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1">
+    <row r="29" spans="1:24" ht="52.5" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2678,23 +3169,35 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1">
+    <row r="30" spans="1:24" ht="103.5" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="M30" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="N30" s="19"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2710,19 +3213,6 @@
       <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2734,23 +3224,37 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+    <row r="32" spans="1:24" ht="77.25" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="77" t="s">
+        <v>200</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2762,23 +3266,43 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1">
+    <row r="33" spans="1:24" ht="187.5" customHeight="1" thickBot="1">
       <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" s="79" t="s">
+        <v>207</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2790,23 +3314,45 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="34" spans="1:24" ht="166.5" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="82" t="s">
+        <v>215</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M34" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2818,23 +3364,43 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+    <row r="35" spans="1:24" ht="114.75" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -2846,23 +3412,47 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+    <row r="36" spans="1:24" ht="45.75" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1997</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="94" t="s">
+        <v>234</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2874,35 +3464,41 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="45.75" thickBot="1">
-      <c r="A37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1997</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="22" t="s">
+    <row r="37" spans="1:24" ht="72.75" thickBot="1">
+      <c r="A37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="B37" s="22">
+        <v>1966</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="97"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2914,35 +3510,20 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A38" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="25">
-        <v>1966</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2965,6 +3546,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4201,33 +4783,8 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="15.75" thickBot="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A86"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -15,12 +15,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$G$1:$G$86</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="275">
   <si>
     <t>institute</t>
   </si>
@@ -166,9 +169,6 @@
     <t>Crop Production, Crop Improvement, Crop Protection, Crop Utilization, Social Sciences, Regional Center</t>
   </si>
   <si>
-    <t>collection germplasm of different tuber crops from different parts of the world and conserving it in field gene bank as well as in vitro,Development of new varieties of tuber crops with higher yield and other attributes suitable for industrial applications as well as for food purpose,developing new agro techniques for tropical tuber crops in different agro climatic regions, develop strategies and products for managing pests and diseases affecting tropical tuber crops, value addition and post harvest processing of tropical tuber crops</t>
-  </si>
-  <si>
     <t>Interdisciplinary</t>
   </si>
   <si>
@@ -202,12 +202,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>neurodevelopmental disorders</t>
-  </si>
-  <si>
-    <t>Best paper award for the research work" Sensitivity of ISAA among children with autism in the State of Kerala" at Centre for Disability studies on Dec, 2013 by BincyKalam, Akhila Vinod.</t>
-  </si>
-  <si>
     <t>Cashew and Coco Development Board</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
   </si>
   <si>
     <t>overall development of Cashew and Cocoa in India</t>
-  </si>
-  <si>
-    <t>Exposure trip in collaboration with Indian institute of horticulture, Nagaland for 48 cashew farmers from Nagaland to Zonal Agricultural Research Station(ZARS) &amp; KVK,, Brahmavar, Karnataka from 12th -14th March, 2010.</t>
   </si>
   <si>
     <t>Biotechnology</t>
@@ -324,9 +315,6 @@
 Nematology laboratory, The global genebank of spices, DUS testing facility, ArcGIS software, Plant Growth chamber, Concentrated Solar Thermal Curing unit for turmeric curing, Agro Processing Centre for Spices, UV-VIS Spectrophotometer, Chlorophyll fluorescence system</t>
   </si>
   <si>
-    <t>release of nearly 49 improved varieties,  Obtained four patents for Starch based biodegradable plastics, Obtained  a patent for producing Cassava alcohol, Patent for mobile starch extraction unit, patent for Starch based biodegradable plastics, patent for process and plant for producing decontaminated water from industrial effluents of cassava starch factories, patent for low cost biotechnique to extract starchy flour with modified functional attributes from cassava</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development of bioprocess for the production of alcohol from cassava, Development of laboratory bioprocess for the production of L-glutamic acid, citric acid, aroma compounds and mushrooms, </t>
   </si>
   <si>
@@ -378,23 +366,505 @@
     <t>Clinical Research, Fundamental Research, Pharmacology Research, Medicinal Plant Research, Drug standardization Research, Literary Research &amp; Documentation</t>
   </si>
   <si>
-    <t>Pharmacology,</t>
-  </si>
-  <si>
     <t>Pharmacology, X-Ray, E.C.G., OPD-cum-Labs</t>
   </si>
   <si>
     <t>standardization of critical aspects of fluid control and measurement in Industrial processes,  technological development for the flow products industry</t>
   </si>
   <si>
-    <t>Air Medium, Water Medium, Oil Medium, Natural Gas Medium, Noise and Vibration, Electro Technical and Thermal</t>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>collection of germplasm of different tuber crops  and conserving it in field gene bank as well as in vitro,Development of new varieties of tuber crops with higher yield and other attributes ,developing new agro techniques for tropical tuber crops in different agro climatic regions, develop strategies and products for managing pests and diseases affecting tropical tuber crops, value addition and post harvest processing of tropical tuber crops</t>
+  </si>
+  <si>
+    <t>Air Medium, Water Medium, Oil Medium, Natural Gas Medium, Noise and Vibration, Electro Technical and Thermal, Mechanical Measurements, Multiphase Facility, CFD and Software</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>KANJIKODE WEST, PALAKKAD - 678623</t>
+  </si>
+  <si>
+    <t>customercare@fcriindia.com</t>
+  </si>
+  <si>
+    <t>91-491-2569010</t>
+  </si>
+  <si>
+    <t>http://www.fcriindia.com/</t>
+  </si>
+  <si>
+    <t>Flow simulation through different types of flow meters, valves,  meter/flow product calibration &amp; Testing/ Consultancy services, calibration and testing of flow products in water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABL accreditation for testing services in fluid flow testing and fluid flow calibaration, </t>
+  </si>
+  <si>
+    <t>Primary and secondary air flow labs, 20 bar Air Calibration &amp; Test Facility, Primary Standard Gravimetric System (PSGS), Closed Loop Air Test Facility (CLATF), Water flow labs (60MM and 100MM), 250 bar Natural Gas Calibration and Test Laboratory, MULTIVISCOUS TEST LOOP, ENVIRONMENTAL QUALIFICATION LAB</t>
+  </si>
+  <si>
+    <t>Crop Improvement, Crop Protection, Crop Production, Social Science, Physiology, Biochemistry &amp; Post Harvest Technology</t>
+  </si>
+  <si>
+    <t>Kasaragod, Kerala-671124</t>
+  </si>
+  <si>
+    <t>director.cpcri@icar.gov.in</t>
+  </si>
+  <si>
+    <t>+91 4994-232894</t>
+  </si>
+  <si>
+    <t>https://cpcri.icar.gov.in/page/index</t>
+  </si>
+  <si>
+    <t>Research on coconut, arecanut and cocoa</t>
+  </si>
+  <si>
+    <t>Farm, Agricultural Technology Information Centre</t>
+  </si>
+  <si>
+    <t>World's largest repository of coconut germplasm with 455 accessions, International Coconut Gene Bank for South Asia &amp; Middle East, Released more than 20 improved varieties of coconut,  178 germplasm collection units in Arecanut, released 11, improved vaieties of Arecanut, Development of microsatellite panel for hybrid purity assessment in coconut, COCONUT ARTIFICIAL POLLINATION MANAGEMENT SYSTEM, 8 patents for different aspects of coconut, arecanut and cocoa</t>
+  </si>
+  <si>
+    <t>Coconut tissue culture, Coconut breeding , Genetic resources management in plantation crops, Coconut based cropping/farming system</t>
+  </si>
+  <si>
+    <t>National Institute for Research &amp; Development in Defence Shipbuilding</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram,Kerala, India, Pin Code:695022</t>
+  </si>
+  <si>
+    <t>webmaster@vssc.gov.in</t>
+  </si>
+  <si>
+    <t>0471- 2564292</t>
+  </si>
+  <si>
+    <t>https://www.vssc.gov.in/</t>
+  </si>
+  <si>
+    <t>Rocket research and launch vehicle projects, Research and Development in space science and planetary exploration</t>
+  </si>
+  <si>
+    <t>The Space Physics Laboratory (SPL), Space Sciences</t>
+  </si>
+  <si>
+    <t>whole gamut of atmospheric, space and planetary sciences right from the surface of Earth to the ionosphere-magnetosphere and the solar system</t>
+  </si>
+  <si>
+    <t>Civil Station Post, Kannur - 670 002</t>
+  </si>
+  <si>
+    <t>rckannur@sugarcane.res.in</t>
+  </si>
+  <si>
+    <t>https://sugarcane.icar.gov.in/index.php/en/abt-us-3/2014-04-23-10-18-59?id=43</t>
+  </si>
+  <si>
+    <t>0497-2705054</t>
+  </si>
+  <si>
+    <t>Plantation Crops</t>
+  </si>
+  <si>
+    <t>Collection, Maintanence , Evaluation, Documentation and Utlisation of sugarcane germplasm</t>
+  </si>
+  <si>
+    <t>1806 accessions under international collection and 1562 under Indian collection under germplasm assemby unit</t>
+  </si>
+  <si>
+    <t>Crop Production, Crop Improvement, Crop Protection, Statistics and Economics</t>
+  </si>
+  <si>
+    <t>Gel documentation system,  PCR machines, Refrigerated centrifuge, Vertical Electrophoresis system, Genetics-Cytogenetics-Transformation lab, Biotechnology, Micropropagation Lab, Plant Pathology Lab,  Plant Physiology Lab, Agronomy, Microbiology Lab, Polarimeter , Microwave Muffle Furnace, UV Vis Spectrophotometer</t>
+  </si>
+  <si>
+    <t>P.B.NO:6520, Vellayambalam,Thiruvananthapuram - 695033</t>
+  </si>
+  <si>
+    <t>91-471-272-3333</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>strengthening national technological capabilities,  building capacities in emerging/enabling technologies</t>
+  </si>
+  <si>
+    <t>High Performance Computing, Multi-lingual Computing, Professional Electronics, Information and Cyber Security, Health Informatics ,Software Technologies</t>
+  </si>
+  <si>
+    <t>Ahalia Integrated Campus, Kozhippara P. O | Palakkad, Kerala | Pin: 678557</t>
+  </si>
+  <si>
+    <t>https://iitpkd.ac.in/</t>
+  </si>
+  <si>
+    <t>04923 226300 </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Multidisciplinary Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health&amp;Biomedical Science &amp; Engineering, Manufacturing &amp; Materials, Water Resources  and Hydrology, Geotechnical Engineering, Ecology and Sustainability, Agricultural Engineering and Food Science, Data Science and Artificial Intelligence , Cyber Physical Systems, Cyber Security
+</t>
+  </si>
+  <si>
+    <t>Central Instrumentation Facility and Central Micro-Nano Fabrication Facility, Central Facility for Materials and Manufacturing Engineering, Chandra-High Performance Computing Cluster (HPC)</t>
+  </si>
+  <si>
+    <t> diseases affecting coconut palm with special emphasis on root(wilt) disease</t>
+  </si>
+  <si>
+    <t>material testing and quality improvement training, third tier testing laboratory for Govt. agencies</t>
+  </si>
+  <si>
+    <t>Bio 360 Life Sciences Park, Thonnakkal, Trivandrum</t>
+  </si>
+  <si>
+    <t>netadmin@iitpkd.ac.in</t>
+  </si>
+  <si>
+    <t>develop state-of-the-art infrastructure, skilled scientific &amp; technical personnel, and services &amp; products in virology to serve local, national and global needs</t>
+  </si>
+  <si>
+    <t>Department of Clinical Virology, Department of Viral Diagnostics, Department of Viral Vaccines, Department of Antiviral Drug Research, Department of Virus Applications, Department of Virus Epidemiology, Vector Dynamics &amp; Public Health, Department of Virus Genomics, Bioinformatics &amp; Statistics, Department of General Virology</t>
+  </si>
+  <si>
+    <t>Prasanth Nagar, Medical College P.O, Ulloor,Thiruvananthapuram-695011</t>
+  </si>
+  <si>
+    <t>https://cds.edu/#m-11-2021</t>
+  </si>
+  <si>
+    <t>91-471- 2774200</t>
+  </si>
+  <si>
+    <t>Social Science Research</t>
+  </si>
+  <si>
+    <t>impacts of extraneous cultural flows, opportunities opened by decentralisation for women, challenges in urban governance ,  state policy and the implication of gender and caste / religious identities in international migration of women workers, ssessment of educational progress, under-nutrition, dietary diversification as well as over/under utilisation of health care , welfare implications of protectionism and the optimality of the mechanism of trade negotiations, Implications of trade and liberalisation on the Indian economy,  political economy of displacement and livelihood issues, declining labour force participation of women and its causal factors</t>
+  </si>
+  <si>
+    <t>Culture and Development, Decentralisation and Governance,Gender and Development, Human Development, Health and Education, Industry and Trade, Innovation and Technology, Labour, Employment and Social Security, Macroeconomic Performance, Migration, Plantation Crops, Politics and Development</t>
+  </si>
+  <si>
+    <t>Balaramapuram, Trivandrum</t>
+  </si>
+  <si>
+    <t>crsbalaram@kau.in</t>
+  </si>
+  <si>
+    <t>http://crsbalaram.kau.in</t>
+  </si>
+  <si>
+    <t>91-471-2400621</t>
+  </si>
+  <si>
+    <t>Kudappanakkunnu P.O., Thiruvananthapuram – 695 043</t>
+  </si>
+  <si>
+    <t> 0471-2730788</t>
+  </si>
+  <si>
+    <t>technological, commercial and academic developments in the entire gamut of activities related to the coconut fiber sector</t>
+  </si>
+  <si>
+    <t>Collection and Interpretation of Database on Coir Sector of Kerala, Innovative Product Development in coir based on market research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed 14 products based on coir like ladies fancy bag, handbag, printed mat, chappel etc. </t>
+  </si>
+  <si>
+    <t>High-Tech Coir Park</t>
+  </si>
+  <si>
+    <t>Agronomy and Soils, Biotechnology, Botany, Genome Analysis, Germplasm, Plant Pathology, Plant Physiology, Exploitation Studies, Rubber Technology, Technical Consultancy, Agricultural Economics</t>
+  </si>
+  <si>
+    <t>Improvement in production and productivity, Integrated approaches to reduce cost of production and improve quality competitiveness</t>
+  </si>
+  <si>
+    <t>Breeding and Release of clones, formulations and processes for different rubber products, Development of transgenic plants through genetic engineering</t>
+  </si>
+  <si>
+    <t>Economics of natural rubber cultivation, yield evaluation and cultural practices, Primary Processing, New coagulants, drying of rubber, quality improvement of natural rubber</t>
+  </si>
+  <si>
+    <t>TC-4/2322, GEM Building , Opposite CET, College of Engineering Trivandrum,Kerala State 695016</t>
+  </si>
+  <si>
+    <t>trestpark@kerala.gov.in</t>
+  </si>
+  <si>
+    <t>0471- 2598555</t>
+  </si>
+  <si>
+    <t>https://www.ncrmi.org/</t>
+  </si>
+  <si>
+    <t>https://trestpark.org/</t>
+  </si>
+  <si>
+    <t>promote partnership and interaction between academic community and industry</t>
+  </si>
+  <si>
+    <t>ANSYS,  Altair Hyperworks, Simulink, Solidworks, AutoCAD</t>
+  </si>
+  <si>
+    <t>Mundur-PO, Palakkad-678592</t>
+  </si>
+  <si>
+    <t>mail@irtc.org.in</t>
+  </si>
+  <si>
+    <t>0491 283 2663</t>
+  </si>
+  <si>
+    <t>Development Institution</t>
+  </si>
+  <si>
+    <t>sustainable solutions in the sector of solid waste management, watershed development, energy management, local planning and livelihood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Resource Management, Solid Waste Management, Energy, Social Sciences, Livelihood, </t>
+  </si>
+  <si>
+    <t>heavy duty oven, pH meter, UV spectrophotometer, atomic absorption spectrophotometer and automatic nitrogen analyser, Chemistry Laboratory,Water Testing, Soil Testing,  Compost Analysis, Electronics Laboratory</t>
+  </si>
+  <si>
+    <t>Soil and water conservation and improvement of soil nutrition, Recharging of open wells and bore wells, Mapping Spatial Distribution of Quarries in Thrissur, Palakkad and Kozhikode ,Studies on Microbial Inoculum Districts, Mapping Spatial Distribution of Quarries in Thrissur, Palakkad and Kozhikode Districts</t>
+  </si>
+  <si>
+    <t>Regional Cancer Center, Medical College Campus, Post Bag No.2417, Thiruvananthapuram, India 695011</t>
+  </si>
+  <si>
+    <t>webmaster@rcctvm.gov.in</t>
+  </si>
+  <si>
+    <t>https://www.rcctvm.gov.in/</t>
+  </si>
+  <si>
+    <t>https://www.irtc.org.in/</t>
+  </si>
+  <si>
+    <t>91-471-2442539</t>
+  </si>
+  <si>
+    <t>cancer diagnosis, treatment, palliation and rehabilitation </t>
+  </si>
+  <si>
+    <t>Government owned cancer treatment institution in the country to win the coveted NABH accreditation</t>
+  </si>
+  <si>
+    <t>Basic Research, Clinical Research</t>
+  </si>
+  <si>
+    <t>Delineation of the molecular mechanism of tumuorigenesis in cancers, Interpreting the molecular mechanisms behind cancer development and progression, eveloping cost effective screening methods for cancers especially cervical and lung cancer, cell signaling pathways in the development of breast cancer, cytogenetic and molecular studies in hematological malignancies, Multi-centre clinical trials, Newer diagnostic techniques, Fine-tuning of the current treatment protocols</t>
+  </si>
+  <si>
+    <t>Early Cancer Detection Clinics, Early Cancer Detection Clinics, Imaging services, Pathology services, Nuclear imaging services, Microbiology services, Cancer Research services</t>
+  </si>
+  <si>
+    <t>HIL Colony, Edayar Road,Pathalam, Eloor, Udyogamandal P.O.,Kochi-683 501</t>
+  </si>
+  <si>
+    <t>91-484-2547741</t>
+  </si>
+  <si>
+    <t>cipetkochi[at]gmail[dot]com</t>
+  </si>
+  <si>
+    <t>https://www.cipet.gov.in/</t>
+  </si>
+  <si>
+    <t>facilities in the areas of Design, CAD/CAM/CAE, Tooling &amp; Mould Manufacturing, Plastics Processing, Testing and Quality Assurance </t>
+  </si>
+  <si>
+    <t>Plastics Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>successful accomplishment of numerous R &amp; D projects in various streams of Plastics Engineering &amp; Technology, International Collaborations and Recognitions from universities in USA, Bazil, South Korea, Cannada etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biopolymers and Composites, Chemical Modification of Polymers, Natural Fiber Reinforced Polymer Composites, Polymer Blends, Alloys and Composites, Bionanocomposites
+</t>
+  </si>
+  <si>
+    <t>Sreekariyam P. O., Thiruvananthapuram 695 017</t>
+  </si>
+  <si>
+    <t>http://www.nish.ac.in/</t>
+  </si>
+  <si>
+    <t>nishinfo@nish.ac.in</t>
+  </si>
+  <si>
+    <t>91-471- 2944666</t>
+  </si>
+  <si>
+    <t>“Excellent” institute by the Rehabilitation Council of India, Grade A' institute by NAAC</t>
+  </si>
+  <si>
+    <t>identification, intervention, rehabilitation and education of individuals with disabilities</t>
+  </si>
+  <si>
+    <t>Hearing Sciences, Speech Language Sciences, Neuro-developmental Sciences</t>
+  </si>
+  <si>
+    <t>state-of-art audiologic tests equipments , Language Assessment Tools</t>
+  </si>
+  <si>
+    <t>Kera Bhavan, Kochi-682011</t>
+  </si>
+  <si>
+    <t>dccd@nic.in</t>
+  </si>
+  <si>
+    <t>https://www.dccd.gov.in/</t>
+  </si>
+  <si>
+    <t>0484-2377151 </t>
+  </si>
+  <si>
+    <t>Post Box No. 1603, Ernakulam North P.O.,Kochi-682 018</t>
+  </si>
+  <si>
+    <t>director.cmfri@icar.gov.in</t>
+  </si>
+  <si>
+    <t>https://www.cmfri.org.in/</t>
+  </si>
+  <si>
+    <t>91 484 2394357</t>
+  </si>
+  <si>
+    <t>estimation of marine fisheries landings and effort, taxonomy of marine organisms and the bio-economic characteristics of the exploited stocks of finfish and shellfish</t>
+  </si>
+  <si>
+    <t>development and refinement of a unique method for estimation- Stratified Multistage Random Sampling Method”</t>
+  </si>
+  <si>
+    <t>sea farming and coastal mariculture , human resources in mariculture , Production and marketing and supply chain management of marine fisheries in India, International trade analysis in seafood trade and Fish market grid</t>
+  </si>
+  <si>
+    <t>Infrastructure development</t>
+  </si>
+  <si>
+    <t>Release of nearly 49 improved varieties,  Obtained four patents for Starch based biodegradable plastics, Obtained  a patent for producing Cassava alcohol, Patent for mobile starch extraction unit, patent for Starch based biodegradable plastics, patent for process and plant for producing decontaminated water from industrial effluents of cassava starch factories, patent for low cost biotechnique to extract starchy flour with modified functional attributes from cassava</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi Centre for Biotechnology</t>
+  </si>
+  <si>
+    <t>Public Policy Research Institute</t>
+  </si>
+  <si>
+    <t>Department of Chemical Sciences, IISER Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Biomedical Technology Wing, Sree Chitra Thirunal Institute of Medical Science and Technology</t>
+  </si>
+  <si>
+    <t>Central coir Research Institute</t>
+  </si>
+  <si>
+    <t>Indian Tuber Crops Research Institute</t>
+  </si>
+  <si>
+    <t>acro</t>
+  </si>
+  <si>
+    <t>National Institute for Interdisciplinary Science and Technology</t>
+  </si>
+  <si>
+    <t>Abr</t>
+  </si>
+  <si>
+    <t>NIIST</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Centre for Development of Advanced Computing</t>
+  </si>
+  <si>
+    <t>CDAC</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology</t>
+  </si>
+  <si>
+    <t>IIT</t>
+  </si>
+  <si>
+    <t>Palakkad</t>
+  </si>
+  <si>
+    <t>Central Crop Research Institute</t>
+  </si>
+  <si>
+    <t>CCRI</t>
+  </si>
+  <si>
+    <t>Kayamkulam</t>
+  </si>
+  <si>
+    <t>Kottayam</t>
+  </si>
+  <si>
+    <t>Rubber Research Institute</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>IRTC</t>
+  </si>
+  <si>
+    <t>Integrated Rural Technology Centre</t>
+  </si>
+  <si>
+    <t>Regional Cancer Centre</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>Central Institute of Petrochemicals Engineering &amp; Technology</t>
+  </si>
+  <si>
+    <t>CIPET</t>
+  </si>
+  <si>
+    <t>National Institute of Speech and Hearing</t>
+  </si>
+  <si>
+    <t>NISH</t>
+  </si>
+  <si>
+    <t>Ccconut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,12 +924,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF4D4D4D"/>
       <name val="Arial"/>
@@ -546,10 +1010,204 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF676767"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF343232"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF828282"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4B494F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252424"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="Noto Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606060"/>
+      <name val="Titilliumtext25l400_wt"/>
     </font>
   </fonts>
   <fills count="3">
@@ -601,10 +1259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,9 +1295,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -661,78 +1317,222 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1247,2255 +2047,3176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="237.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="237.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" customWidth="1"/>
+    <col min="16" max="16" width="35.109375" customWidth="1"/>
+    <col min="17" max="17" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="N1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="186" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10">
+        <v>249</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10">
         <v>1963</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="M2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="11"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="214.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="14">
         <v>1975</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="N3" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="P3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="192.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="18">
         <v>1986</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="N4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="P4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="Q4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="17">
+        <v>244</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="16">
         <v>1990</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="L5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="19"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="252" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="120" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="20" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="304.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="N11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="N12" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="19"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="126" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="46" t="s">
+      <c r="I15" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>125</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" s="19"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="57" t="s">
+        <v>151</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="19"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="19"/>
+      <c r="Q22" s="19"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="238.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="19"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="P30" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="19"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B31" s="101"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="G31" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="77" t="s">
+        <v>196</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" ht="187.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="P33" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q33" s="79" t="s">
+        <v>203</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="P34" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K35" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="L35" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="M35" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>219</v>
+      </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1997</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" s="92" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="94" t="s">
+        <v>230</v>
+      </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="22">
+        <v>1966</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="97"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1997</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="25">
-        <v>1966</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="3"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" s="3"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" s="3"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" s="3"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" s="3"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" s="3"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" s="3"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" s="3"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" s="3"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="3"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" s="3"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" s="3"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="3"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" s="3"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" s="3"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="3"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="3"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" s="3"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" s="3"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" s="3"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" s="3"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" s="3"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" s="3"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" s="3"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" s="3"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="3"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="3"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" s="3"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" s="3"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" s="3"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="3"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" s="3"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="3"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" s="3"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="3"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" s="3"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82" s="3"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" s="3"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-    </row>
-    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" s="3"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="3"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="3"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" s="3"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="3"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="N86" s="3"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-    </row>
-    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-    </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G86"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
